--- a/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>5,91</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 21,84</t>
+          <t>-5,0; 19,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 16,27</t>
+          <t>-10,34; 14,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 20,9</t>
+          <t>-6,89; 14,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 19,66</t>
+          <t>-0,25; 22,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 18,39</t>
+          <t>-3,78; 14,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 14,45</t>
+          <t>-1,74; 14,82</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>112,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>49,03%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 186,53</t>
+          <t>-29,64; 230,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 144,05</t>
+          <t>-54,48; 169,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 346,99</t>
+          <t>-52,63; 364,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 264,48</t>
+          <t>-11,91; 556,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 151,39</t>
+          <t>-24,83; 170,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 126,66</t>
+          <t>-14,66; 192,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>3,65</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 19,55</t>
+          <t>-8,39; 21,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 14,86</t>
+          <t>-16,48; 16,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 14,11</t>
+          <t>-6,51; 20,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 22,17</t>
+          <t>-5,06; 19,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 14,64</t>
+          <t>-4,29; 18,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 14,82</t>
+          <t>-5,69; 14,45</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112,81%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>21,71%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 230,23</t>
+          <t>-32,08; 186,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 169,1</t>
+          <t>-54,6; 144,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 364,24</t>
+          <t>-42,43; 346,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 556,53</t>
+          <t>-30,03; 264,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 170,46</t>
+          <t>-24,16; 151,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 192,12</t>
+          <t>-28,54; 126,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>4,83</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 11,03</t>
+          <t>-11,0; 17,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 15,08</t>
+          <t>-11,41; 16,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 17,57</t>
+          <t>-13,29; 15,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 17,82</t>
+          <t>-8,51; 28,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 11,5</t>
+          <t>-7,4; 12,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 11,36</t>
+          <t>-5,45; 16,06</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>36,41%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,21; 168,65</t>
+          <t>-73,85; 300,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 211,68</t>
+          <t>-68,5; 319,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 188,82</t>
+          <t>-65,86; 202,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 194,27</t>
+          <t>-48,76; 342,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 114,91</t>
+          <t>-44,63; 138,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 115,25</t>
+          <t>-36,43; 162,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>5,4</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 19,55</t>
+          <t>-6,11; 16,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 14,86</t>
+          <t>-5,22; 16,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 14,11</t>
+          <t>-3,28; 21,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 22,17</t>
+          <t>-5,1; 17,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 14,64</t>
+          <t>-1,52; 15,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 14,82</t>
+          <t>-2,8; 14,06</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>112,81%</t>
+          <t>55,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>46,66%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 230,23</t>
+          <t>-39,26; 220,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 169,1</t>
+          <t>-30,77; 219,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 364,24</t>
+          <t>-32,11; 384,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 556,53</t>
+          <t>-42,76; 304,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 170,46</t>
+          <t>-13,16; 188,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 192,12</t>
+          <t>-19,06; 180,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 21,84</t>
+          <t>-14,99; 21,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 16,27</t>
+          <t>-24,27; 7,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 20,9</t>
+          <t>-16,1; 14,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 19,66</t>
+          <t>-8,8; 24,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 18,39</t>
+          <t>-9,9; 13,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 14,45</t>
+          <t>-12,09; 11,3</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>-5,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 186,53</t>
+          <t>-50,66; 206,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 144,05</t>
+          <t>-81,13; 81,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 346,99</t>
+          <t>-66,03; 221,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 264,48</t>
+          <t>-36,68; 353,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 151,39</t>
+          <t>-42,48; 121,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 126,66</t>
+          <t>-47,41; 105,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>6,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 13,49</t>
+          <t>-17,98; 22,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 12,01</t>
+          <t>-14,96; 22,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 11,83</t>
+          <t>-3,82; 28,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 14,47</t>
+          <t>-1,81; 25,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,12</t>
+          <t>-4,83; 19,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 10,62</t>
+          <t>-5,49; 18,73</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>148,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,26%</t>
+          <t>151,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>47,01%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 121,69</t>
+          <t>-58,82; 166,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 98,15</t>
+          <t>-52,4; 198,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 132,68</t>
+          <t>-45,88; 1248,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 164,96</t>
+          <t>-26,33; inf</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 87,15</t>
+          <t>-28,32; 237,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 90,63</t>
+          <t>-27,43; 218,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4,94</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 12,41</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 11,34</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 11,69</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 14,58</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 9,95</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 11,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>33,76%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>59,26%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>37,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-15,18; 104,1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-24,72; 94,06</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 123,42</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 162,89</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 84,9</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 99,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 17,58</t>
+          <t>-9,58; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 16,51</t>
+          <t>-11,22; 15,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 15,61</t>
+          <t>-12,65; 14,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 28,11</t>
+          <t>-7,55; 30,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 12,82</t>
+          <t>-7,92; 11,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 16,06</t>
+          <t>-5,88; 17,27</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,85; 300,28</t>
+          <t>-65,85; 419,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,5; 319,14</t>
+          <t>-69,46; 360,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,86; 202,72</t>
+          <t>-62,84; 218,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,76; 342,56</t>
+          <t>-44,13; 335,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 138,5</t>
+          <t>-46,43; 140,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 162,83</t>
+          <t>-35,05; 190,33</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 16,78</t>
+          <t>-5,75; 18,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 16,6</t>
+          <t>-5,18; 17,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 21,59</t>
+          <t>-2,69; 21,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 17,7</t>
+          <t>-4,03; 17,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 15,7</t>
+          <t>-1,12; 15,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 14,06</t>
+          <t>-2,36; 14,03</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 220,24</t>
+          <t>-34,6; 230,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 219,24</t>
+          <t>-35,13; 197,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 384,87</t>
+          <t>-22,32; 448,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 304,81</t>
+          <t>-34,94; 361,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 188,74</t>
+          <t>-10,06; 191,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 180,32</t>
+          <t>-18,95; 157,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 21,95</t>
+          <t>-15,35; 22,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 7,58</t>
+          <t>-25,02; 7,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 14,08</t>
+          <t>-16,81; 13,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 24,03</t>
+          <t>-9,06; 22,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 13,61</t>
+          <t>-8,57; 13,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 11,3</t>
+          <t>-12,32; 10,65</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 206,14</t>
+          <t>-50,68; 211,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 81,66</t>
+          <t>-80,93; 77,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 221,27</t>
+          <t>-68,77; 169,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 353,53</t>
+          <t>-40,31; 259,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 121,42</t>
+          <t>-37,3; 113,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 105,59</t>
+          <t>-49,44; 96,71</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 22,15</t>
+          <t>-18,13; 22,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 22,66</t>
+          <t>-14,47; 20,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 28,42</t>
+          <t>-2,32; 28,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 25,71</t>
+          <t>-2,15; 25,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 19,99</t>
+          <t>-6,24; 19,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 18,73</t>
+          <t>-5,02; 18,45</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 166,28</t>
+          <t>-58,86; 187,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 198,49</t>
+          <t>-49,68; 173,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 1248,65</t>
+          <t>-50,43; 1180,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,33; inf</t>
+          <t>-44,16; 880,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 237,43</t>
+          <t>-33,77; 210,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 218,48</t>
+          <t>-30,31; 217,41</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 12,41</t>
+          <t>-2,32; 12,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 11,34</t>
+          <t>-3,79; 12,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 11,69</t>
+          <t>-1,94; 11,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 14,58</t>
+          <t>-0,22; 14,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 9,95</t>
+          <t>-0,18; 9,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 11,02</t>
+          <t>-0,01; 10,57</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 104,1</t>
+          <t>-12,22; 107,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 94,06</t>
+          <t>-22,29; 105,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 123,42</t>
+          <t>-14,18; 131,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 162,89</t>
+          <t>-5,41; 167,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 84,9</t>
+          <t>-2,72; 82,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 99,68</t>
+          <t>-0,64; 89,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9,06</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,46</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,57</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 17,06</t>
+          <t>-14,45; 15,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 15,95</t>
+          <t>-8,28; 30,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 14,61</t>
+          <t>-10,55; 18,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 30,31</t>
+          <t>-10,98; 14,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 11,98</t>
+          <t>-7,84; 13,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 17,27</t>
+          <t>-5,97; 15,65</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>59,49%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>21,63%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,29%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>34,44%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,85; 419,03</t>
+          <t>-67,79; 178,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,46; 360,79</t>
+          <t>-45,97; 326,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 218,26</t>
+          <t>-71,48; 372,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 335,24</t>
+          <t>-68,92; 271,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 140,92</t>
+          <t>-48,69; 156,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 190,33</t>
+          <t>-37,17; 191,62</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,55</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,87</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,55</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 18,61</t>
+          <t>-3,38; 21,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 17,14</t>
+          <t>-5,89; 16,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 21,48</t>
+          <t>-6,35; 17,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 17,75</t>
+          <t>-6,22; 18,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 15,85</t>
+          <t>-1,51; 15,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 14,03</t>
+          <t>-2,69; 15,02</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>85,7%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>37,9%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>42,7%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>85,7%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>44,91%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 230,99</t>
+          <t>-31,79; 376,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 197,77</t>
+          <t>-45,43; 285,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 448,9</t>
+          <t>-40,58; 228,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 361,85</t>
+          <t>-38,82; 225,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 191,54</t>
+          <t>-10,92; 192,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 157,27</t>
+          <t>-19,42; 180,96</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>5,48</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,81</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,64</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 22,99</t>
+          <t>-15,67; 14,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 7,28</t>
+          <t>-9,7; 22,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 13,25</t>
+          <t>-12,96; 22,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 22,54</t>
+          <t>-22,67; 8,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 13,45</t>
+          <t>-8,88; 14,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 10,65</t>
+          <t>-11,61; 10,59</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-5,24%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41,42%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>27,4%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-34,04%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,24%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>-35,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>-3,56%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 211,42</t>
+          <t>-66,77; 187,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 77,54</t>
+          <t>-42,41; 265,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,77; 169,01</t>
+          <t>-48,37; 200,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,31; 259,78</t>
+          <t>-77,7; 99,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 113,98</t>
+          <t>-37,9; 131,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 96,71</t>
+          <t>-48,95; 94,41</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10,63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,42</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>10,63</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>5,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 22,67</t>
+          <t>-4,15; 26,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 20,31</t>
+          <t>-7,47; 30,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 28,89</t>
+          <t>-16,6; 23,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 25,62</t>
+          <t>-15,73; 22,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 19,58</t>
+          <t>-5,07; 20,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 18,45</t>
+          <t>-6,46; 20,72</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>148,64%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>142,37%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>11,01%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>8,61%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>148,64%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>151,5%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>41,15%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,86; 187,26</t>
+          <t>-56,98; 1164,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 173,87</t>
+          <t>-61,21; 1311,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 1180,67</t>
+          <t>-55,3; 194,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 880,35</t>
+          <t>-52,2; 202,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 210,43</t>
+          <t>-28,94; 254,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 217,41</t>
+          <t>-37,45; 209,5</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>5,13</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 12,23</t>
+          <t>-1,99; 11,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 12,09</t>
+          <t>-3,29; 15,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 11,83</t>
+          <t>-2,63; 13,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 14,84</t>
+          <t>-4,01; 11,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,88</t>
+          <t>-0,06; 10,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 10,57</t>
+          <t>-0,98; 10,9</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52,49%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>33,76%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>21,51%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>40,69%</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>59,26%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>34,5%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 107,55</t>
+          <t>-13,87; 132,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 105,12</t>
+          <t>-23,4; 167,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 131,16</t>
+          <t>-14,01; 121,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 167,15</t>
+          <t>-24,07; 99,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 82,39</t>
+          <t>1,52; 87,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 89,63</t>
+          <t>-6,23; 92,75</t>
         </is>
       </c>
     </row>
